--- a/Excels/data/2018.xlsx
+++ b/Excels/data/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F63992E-6617-4390-B7B1-74440E1535E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71C1B7-1FA4-4C95-8316-FB1ADEA4F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="-60" windowWidth="16200" windowHeight="9360" activeTab="3" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -896,7 +896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,14 +904,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,14 +918,8 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -950,44 +938,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1083,7 +1052,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,9 +1150,9 @@
   <autoFilter ref="A1:E20" xr:uid="{2BD9DE6A-FAE0-4373-9791-E4D53686E0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D5D92CDC-B341-4F21-829F-A9D7F45F6F20}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7055DEA7-60AF-4C8A-9764-2888A92B2F8E}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{64F338F2-96FB-455E-971A-B124525C08D8}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C99EC816-0791-471E-8623-3F6430BDC77B}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7055DEA7-60AF-4C8A-9764-2888A92B2F8E}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{64F338F2-96FB-455E-971A-B124525C08D8}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C99EC816-0791-471E-8623-3F6430BDC77B}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{515548B7-D395-4A5F-8364-E93C4707ACC9}" uniqueName="5" name="Location" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1194,30 +1163,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1660E6A3-77F3-4DB8-95BA-CAC3AE389E8C}" name="Table_4" displayName="Table_4" ref="A1:X38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X38" xr:uid="{1660E6A3-77F3-4DB8-95BA-CAC3AE389E8C}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{03F567E4-981F-4120-8BEB-09A21AF2F199}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{5CF3BA8A-1E55-400F-AEC8-442EDB56D2B1}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{0B274996-FEF1-40AE-8828-3753901D9275}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{109DB14F-CC75-4ECC-9863-14B0A1AF21D5}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{8E7BBEA5-6AFD-4282-9521-A40571EA3662}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{48181D7A-BD38-4E69-8CBE-1F20EE71C390}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{E64EC3E2-79A6-4E80-9FF2-2D41F2E1EF29}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{196432A2-BBA3-498A-BDFB-0DCBE7640E16}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{E86AE169-38B3-4BC9-8A56-00FC94C25862}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{39925DE6-E01A-4AD0-B892-05889B6EBF4B}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{E07AF44E-75C1-4FDE-BFEF-B022F4E04637}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{AE934A0F-2B20-4327-AA01-66CDFA0F4C18}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{5C03F284-7518-4F7F-A124-07F051EC345B}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{E70DC0F0-C4C1-4088-92A3-BCEB71EFFC83}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{48BD5AD8-9258-4B64-9FCB-67DC6256201F}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{94484A47-DCAA-491C-892D-643D6D8A2D1A}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{820A49AA-3906-441D-A718-128FAA375447}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{52E69960-0C17-425E-A219-5FD86413A1DB}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{C295FD91-A5DE-495C-BA05-22E287E6C4CD}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{6385ADA2-8503-49FE-8D54-1D5E4AF330D9}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{2EB2465C-81E6-4A5E-8D39-93738AC51619}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{92CEEFCD-1D8F-43F3-948B-AF780D3D7531}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{695950D0-3ED1-43B9-9ABE-EA94D5CAEE5A}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{2473EC9B-34D6-4773-ADE8-C8AA8CE63288}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{03F567E4-981F-4120-8BEB-09A21AF2F199}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5CF3BA8A-1E55-400F-AEC8-442EDB56D2B1}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0B274996-FEF1-40AE-8828-3753901D9275}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{109DB14F-CC75-4ECC-9863-14B0A1AF21D5}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{8E7BBEA5-6AFD-4282-9521-A40571EA3662}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{48181D7A-BD38-4E69-8CBE-1F20EE71C390}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{E64EC3E2-79A6-4E80-9FF2-2D41F2E1EF29}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{196432A2-BBA3-498A-BDFB-0DCBE7640E16}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{E86AE169-38B3-4BC9-8A56-00FC94C25862}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{39925DE6-E01A-4AD0-B892-05889B6EBF4B}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{E07AF44E-75C1-4FDE-BFEF-B022F4E04637}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{AE934A0F-2B20-4327-AA01-66CDFA0F4C18}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{5C03F284-7518-4F7F-A124-07F051EC345B}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{E70DC0F0-C4C1-4088-92A3-BCEB71EFFC83}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{48BD5AD8-9258-4B64-9FCB-67DC6256201F}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{94484A47-DCAA-491C-892D-643D6D8A2D1A}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{820A49AA-3906-441D-A718-128FAA375447}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{52E69960-0C17-425E-A219-5FD86413A1DB}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{C295FD91-A5DE-495C-BA05-22E287E6C4CD}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{6385ADA2-8503-49FE-8D54-1D5E4AF330D9}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{2EB2465C-81E6-4A5E-8D39-93738AC51619}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{92CEEFCD-1D8F-43F3-948B-AF780D3D7531}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{695950D0-3ED1-43B9-9ABE-EA94D5CAEE5A}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{2473EC9B-34D6-4773-ADE8-C8AA8CE63288}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,13 +1196,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}" name="Table_0" displayName="Table_0" ref="A1:G40" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G40" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F0B00F1-861E-41A3-97E0-747D56A89C26}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{29DA6745-DD08-4687-AFF2-75693E904371}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{A960DF74-E253-4E7D-BC86-E6C3E5839118}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{76025694-AA74-4A2D-873F-E6C68322AB20}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2F0B00F1-861E-41A3-97E0-747D56A89C26}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{29DA6745-DD08-4687-AFF2-75693E904371}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A960DF74-E253-4E7D-BC86-E6C3E5839118}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{76025694-AA74-4A2D-873F-E6C68322AB20}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{5BFB9C95-4D37-4F6E-8459-FF6C95D85A69}" uniqueName="4" name="No." queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0092F9EF-09BE-478C-8835-71467F3F031A}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{4D7EE4F5-F636-49B4-86CA-229D0093C112}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{0092F9EF-09BE-478C-8835-71467F3F031A}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4D7EE4F5-F636-49B4-86CA-229D0093C112}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1538,14 +1507,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D757E5-4957-4002-A57B-DD3407E545FD}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1555,13 +1524,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1572,13 +1541,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E2" t="s">
@@ -1589,13 +1558,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E3" t="s">
@@ -1606,47 +1575,47 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E6" t="s">
@@ -1657,13 +1626,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E7" t="s">
@@ -1674,13 +1643,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E8" t="s">
@@ -1691,13 +1660,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E9" t="s">
@@ -1708,13 +1677,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E10" t="s">
@@ -1725,13 +1694,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>219</v>
       </c>
       <c r="E11" t="s">
@@ -1742,13 +1711,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E12" t="s">
@@ -1759,13 +1728,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E13" t="s">
@@ -1776,13 +1745,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E14" t="s">
@@ -1793,13 +1762,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E15" t="s">
@@ -1810,13 +1779,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E16" t="s">
@@ -1827,13 +1796,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E17" t="s">
@@ -1844,13 +1813,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E18" t="s">
@@ -1861,13 +1830,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E19" t="s">
@@ -1878,13 +1847,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E20" t="s">
@@ -1902,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5726970-F23F-4BE3-9C26-65E8C1F979CD}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X38"/>
@@ -1992,2262 +1961,2020 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>145</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>146</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>140</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>150</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>142</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>140</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>152</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>134</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>137</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>140</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>134</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>141</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>157</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="U7" t="s">
+        <v>138</v>
+      </c>
+      <c r="V7" t="s">
         <v>134</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" t="s">
         <v>143</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>140</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" t="s">
         <v>141</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>129</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>160</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
+      <c r="X8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s">
         <v>142</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>141</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>85</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>68</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X9" s="1" t="s">
+      <c r="W9" t="s">
+        <v>138</v>
+      </c>
+      <c r="X9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>140</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>145</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>165</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>166</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>137</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>160</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>160</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1" t="s">
+      <c r="V10" t="s">
         <v>167</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
         <v>85</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>152</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>136</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>134</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>154</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="T11" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" t="s">
         <v>129</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="V11" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" t="s">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>164</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>150</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>136</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>141</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" t="s">
         <v>150</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="U12" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" t="s">
         <v>141</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>141</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>152</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>136</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="R13" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" t="s">
         <v>150</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>141</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>143</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X13" s="1" t="s">
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>142</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1" t="s">
+      <c r="X14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
         <v>152</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>157</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>136</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>68</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>152</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="T15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" t="s">
         <v>143</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>150</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
         <v>160</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" t="s">
         <v>160</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>174</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W16" s="1" t="s">
+      <c r="U16" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" t="s">
+        <v>138</v>
+      </c>
+      <c r="W16" t="s">
         <v>134</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>167</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>148</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>136</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>85</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>157</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" t="s">
         <v>154</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>150</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X17" s="1" t="s">
+      <c r="W17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>157</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>148</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>43</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>85</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>152</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="U18" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" t="s">
         <v>152</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" t="s">
         <v>152</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>136</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>157</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>140</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>59</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="T19" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
         <v>68</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>154</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X19" s="1" t="s">
+      <c r="W19" t="s">
+        <v>138</v>
+      </c>
+      <c r="X19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>105</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>59</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>164</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>85</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>152</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" t="s">
         <v>164</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
         <v>154</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>136</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1" t="s">
+      <c r="X21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="K22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" t="s">
         <v>136</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>85</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>183</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" t="s">
         <v>164</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
         <v>157</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" t="s">
         <v>157</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" t="s">
         <v>140</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="I23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>157</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>164</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="N23" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" t="s">
         <v>181</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>174</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>105</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>105</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" t="s">
         <v>148</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" t="s">
         <v>148</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" t="s">
         <v>154</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>164</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="V24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W24" t="s">
         <v>142</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>181</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>164</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>41</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="T25" t="s">
+        <v>138</v>
+      </c>
+      <c r="U25" t="s">
         <v>154</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W25" s="1" t="s">
+      <c r="V25" t="s">
+        <v>138</v>
+      </c>
+      <c r="W25" t="s">
         <v>157</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1" t="s">
+      <c r="X26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1" t="s">
+      <c r="N27" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>138</v>
+      </c>
+      <c r="X27" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1" t="s">
+      <c r="V28" t="s">
         <v>59</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" t="s">
         <v>68</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
+      <c r="K29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1" t="s">
+      <c r="X29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
+      <c r="T30" t="s">
         <v>157</v>
       </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1" t="s">
+      <c r="X30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" t="s">
         <v>148</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" t="s">
         <v>181</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P31" s="1" t="s">
+      <c r="O31" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" t="s">
         <v>136</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R31" s="1" t="s">
+      <c r="Q31" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" t="s">
         <v>148</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" t="s">
         <v>105</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" t="s">
         <v>164</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" t="s">
         <v>41</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" t="s">
         <v>160</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32" t="s">
         <v>181</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" t="s">
         <v>148</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" t="s">
         <v>41</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" t="s">
         <v>41</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" t="s">
         <v>160</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" t="s">
         <v>164</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="X32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" t="s">
         <v>181</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" t="s">
         <v>105</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
         <v>183</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" t="s">
         <v>136</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" t="s">
         <v>183</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" t="s">
         <v>41</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" t="s">
         <v>181</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" t="s">
         <v>181</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" t="s">
         <v>105</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X33" s="1" t="s">
+      <c r="W33" t="s">
+        <v>138</v>
+      </c>
+      <c r="X33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
+      <c r="U34" t="s">
         <v>43</v>
       </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1" t="s">
+      <c r="X34" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1" t="s">
+      <c r="K35" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" t="s">
         <v>148</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1" t="s">
+      <c r="T35" t="s">
         <v>174</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1" t="s">
+      <c r="X35" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" t="s">
         <v>185</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1" t="s">
+      <c r="X36" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
+      <c r="P37" t="s">
         <v>136</v>
       </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1" t="s">
+      <c r="X37" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4299,899 +4026,899 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>200</v>
       </c>
       <c r="E2">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>200</v>
       </c>
       <c r="E3">
         <v>45</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>200</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>200</v>
       </c>
       <c r="E5">
         <v>99</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>200</v>
       </c>
       <c r="E6">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>200</v>
       </c>
       <c r="E7">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>200</v>
       </c>
       <c r="E8">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>200</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>200</v>
       </c>
       <c r="E10">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>200</v>
       </c>
       <c r="E11">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>200</v>
       </c>
       <c r="E12">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>200</v>
       </c>
       <c r="E13">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>200</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>200</v>
       </c>
       <c r="E15">
         <v>53</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>200</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>200</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>200</v>
       </c>
       <c r="E18">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>200</v>
       </c>
       <c r="E19">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>200</v>
       </c>
       <c r="E20">
         <v>12</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>200</v>
       </c>
       <c r="E21">
         <v>21</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>200</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>200</v>
       </c>
       <c r="E23">
         <v>30</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>200</v>
       </c>
       <c r="E24">
         <v>35</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>200</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>200</v>
       </c>
       <c r="E26">
         <v>26</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>200</v>
       </c>
       <c r="E27">
         <v>93</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>200</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>200</v>
       </c>
       <c r="E29">
         <v>38</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>200</v>
       </c>
       <c r="E30">
         <v>44</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>200</v>
       </c>
       <c r="E31">
         <v>76</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>200</v>
       </c>
       <c r="E32">
         <v>36</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>200</v>
       </c>
       <c r="E33">
         <v>29</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>200</v>
       </c>
       <c r="E34">
         <v>42</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>200</v>
       </c>
       <c r="E35">
         <v>50</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>200</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>200</v>
       </c>
       <c r="E37">
         <v>55</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>200</v>
       </c>
       <c r="E38">
         <v>25</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>200</v>
       </c>
       <c r="E39">
         <v>46</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>200</v>
       </c>
       <c r="E40">
         <v>89</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5207,7 +4934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487208C-5F51-44C5-8F84-3856B0C3FEB3}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5297,1828 +5024,1828 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="O8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="5" t="s">
+      <c r="R12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="6" t="s">
+      <c r="O13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15" s="6" t="s">
+      <c r="Q15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" s="5" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T16" s="5" t="s">
+      <c r="R16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="S18" s="5" t="s">
+      <c r="R18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="Q19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="J22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="F23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T24" s="5" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="Q25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="S25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="H31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="6" t="s">
+      <c r="L31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O31" s="6" t="s">
+      <c r="N31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="T31" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="G33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/data/2018.xlsx
+++ b/Excels/data/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71C1B7-1FA4-4C95-8316-FB1ADEA4F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2330916-E019-42A6-9A10-45BEF7364CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="262">
   <si>
     <t>Round</t>
   </si>
@@ -890,6 +890,12 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -950,11 +956,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1126,8 +1136,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{8A90AC96-3FBB-4538-BE01-EEFF0C5B9057}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -1135,6 +1145,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -1150,9 +1161,9 @@
   <autoFilter ref="A1:E20" xr:uid="{2BD9DE6A-FAE0-4373-9791-E4D53686E0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D5D92CDC-B341-4F21-829F-A9D7F45F6F20}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7055DEA7-60AF-4C8A-9764-2888A92B2F8E}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{64F338F2-96FB-455E-971A-B124525C08D8}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C99EC816-0791-471E-8623-3F6430BDC77B}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7055DEA7-60AF-4C8A-9764-2888A92B2F8E}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{64F338F2-96FB-455E-971A-B124525C08D8}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C99EC816-0791-471E-8623-3F6430BDC77B}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{515548B7-D395-4A5F-8364-E93C4707ACC9}" uniqueName="5" name="Location" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1163,46 +1174,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1660E6A3-77F3-4DB8-95BA-CAC3AE389E8C}" name="Table_4" displayName="Table_4" ref="A1:X38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X38" xr:uid="{1660E6A3-77F3-4DB8-95BA-CAC3AE389E8C}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{03F567E4-981F-4120-8BEB-09A21AF2F199}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{5CF3BA8A-1E55-400F-AEC8-442EDB56D2B1}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0B274996-FEF1-40AE-8828-3753901D9275}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{109DB14F-CC75-4ECC-9863-14B0A1AF21D5}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{8E7BBEA5-6AFD-4282-9521-A40571EA3662}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{48181D7A-BD38-4E69-8CBE-1F20EE71C390}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{E64EC3E2-79A6-4E80-9FF2-2D41F2E1EF29}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{196432A2-BBA3-498A-BDFB-0DCBE7640E16}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{E86AE169-38B3-4BC9-8A56-00FC94C25862}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{39925DE6-E01A-4AD0-B892-05889B6EBF4B}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{E07AF44E-75C1-4FDE-BFEF-B022F4E04637}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{AE934A0F-2B20-4327-AA01-66CDFA0F4C18}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{5C03F284-7518-4F7F-A124-07F051EC345B}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{E70DC0F0-C4C1-4088-92A3-BCEB71EFFC83}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{48BD5AD8-9258-4B64-9FCB-67DC6256201F}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{94484A47-DCAA-491C-892D-643D6D8A2D1A}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{820A49AA-3906-441D-A718-128FAA375447}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{52E69960-0C17-425E-A219-5FD86413A1DB}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{C295FD91-A5DE-495C-BA05-22E287E6C4CD}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{6385ADA2-8503-49FE-8D54-1D5E4AF330D9}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{2EB2465C-81E6-4A5E-8D39-93738AC51619}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{92CEEFCD-1D8F-43F3-948B-AF780D3D7531}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{695950D0-3ED1-43B9-9ABE-EA94D5CAEE5A}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{2473EC9B-34D6-4773-ADE8-C8AA8CE63288}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{03F567E4-981F-4120-8BEB-09A21AF2F199}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5CF3BA8A-1E55-400F-AEC8-442EDB56D2B1}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{0B274996-FEF1-40AE-8828-3753901D9275}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{109DB14F-CC75-4ECC-9863-14B0A1AF21D5}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{8E7BBEA5-6AFD-4282-9521-A40571EA3662}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{48181D7A-BD38-4E69-8CBE-1F20EE71C390}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{E64EC3E2-79A6-4E80-9FF2-2D41F2E1EF29}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{196432A2-BBA3-498A-BDFB-0DCBE7640E16}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{E86AE169-38B3-4BC9-8A56-00FC94C25862}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{39925DE6-E01A-4AD0-B892-05889B6EBF4B}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{E07AF44E-75C1-4FDE-BFEF-B022F4E04637}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{AE934A0F-2B20-4327-AA01-66CDFA0F4C18}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{5C03F284-7518-4F7F-A124-07F051EC345B}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{E70DC0F0-C4C1-4088-92A3-BCEB71EFFC83}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{48BD5AD8-9258-4B64-9FCB-67DC6256201F}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{94484A47-DCAA-491C-892D-643D6D8A2D1A}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{820A49AA-3906-441D-A718-128FAA375447}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{52E69960-0C17-425E-A219-5FD86413A1DB}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{C295FD91-A5DE-495C-BA05-22E287E6C4CD}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{6385ADA2-8503-49FE-8D54-1D5E4AF330D9}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{2EB2465C-81E6-4A5E-8D39-93738AC51619}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{92CEEFCD-1D8F-43F3-948B-AF780D3D7531}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{695950D0-3ED1-43B9-9ABE-EA94D5CAEE5A}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{2473EC9B-34D6-4773-ADE8-C8AA8CE63288}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}" name="Table_0" displayName="Table_0" ref="A1:G40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G40" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F0B00F1-861E-41A3-97E0-747D56A89C26}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{29DA6745-DD08-4687-AFF2-75693E904371}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A960DF74-E253-4E7D-BC86-E6C3E5839118}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{76025694-AA74-4A2D-873F-E6C68322AB20}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}" name="Table_0" displayName="Table_0" ref="A1:H40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{EBBA66D4-94AF-4E1D-BE6B-787DCEDB42A8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2F0B00F1-861E-41A3-97E0-747D56A89C26}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{29DA6745-DD08-4687-AFF2-75693E904371}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A960DF74-E253-4E7D-BC86-E6C3E5839118}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{76025694-AA74-4A2D-873F-E6C68322AB20}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5BFB9C95-4D37-4F6E-8459-FF6C95D85A69}" uniqueName="4" name="No." queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0092F9EF-09BE-478C-8835-71467F3F031A}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4D7EE4F5-F636-49B4-86CA-229D0093C112}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0092F9EF-09BE-478C-8835-71467F3F031A}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4D7EE4F5-F636-49B4-86CA-229D0093C112}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A4DC7F67-A4E3-41DC-BEA5-8D2AC9A0B2AE}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D757E5-4957-4002-A57B-DD3407E545FD}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3986,10 +3998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD47903-3DD3-467B-925C-363ECCAFAC27}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,7 +4014,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4024,8 +4036,11 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4047,8 +4062,11 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4070,8 +4088,11 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4093,8 +4114,11 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4116,8 +4140,11 @@
       <c r="G5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4139,8 +4166,11 @@
       <c r="G6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4162,8 +4192,11 @@
       <c r="G7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4185,8 +4218,11 @@
       <c r="G8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -4208,8 +4244,11 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -4231,8 +4270,11 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4254,8 +4296,11 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4277,8 +4322,11 @@
       <c r="G12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4348,11 @@
       <c r="G13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -4323,8 +4374,11 @@
       <c r="G14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4346,8 +4400,11 @@
       <c r="G15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -4369,8 +4426,11 @@
       <c r="G16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4392,8 +4452,11 @@
       <c r="G17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -4415,8 +4478,11 @@
       <c r="G18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4438,8 +4504,11 @@
       <c r="G19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -4461,8 +4530,11 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -4484,8 +4556,11 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4507,8 +4582,11 @@
       <c r="G22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
@@ -4530,8 +4608,11 @@
       <c r="G23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>198</v>
       </c>
@@ -4553,8 +4634,11 @@
       <c r="G24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -4576,8 +4660,11 @@
       <c r="G25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -4599,8 +4686,11 @@
       <c r="G26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -4622,8 +4712,11 @@
       <c r="G27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -4645,8 +4738,11 @@
       <c r="G28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -4668,8 +4764,11 @@
       <c r="G29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -4691,8 +4790,11 @@
       <c r="G30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -4714,8 +4816,11 @@
       <c r="G31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -4737,8 +4842,11 @@
       <c r="G32" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -4760,8 +4868,11 @@
       <c r="G33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -4783,8 +4894,11 @@
       <c r="G34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -4806,8 +4920,11 @@
       <c r="G35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -4829,8 +4946,11 @@
       <c r="G36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4852,8 +4972,11 @@
       <c r="G37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -4875,8 +4998,11 @@
       <c r="G38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -4898,8 +5024,11 @@
       <c r="G39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -4920,6 +5049,9 @@
       </c>
       <c r="G40" t="s">
         <v>105</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/data/2018.xlsx
+++ b/Excels/data/2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1331E6-0B0F-4487-B951-097278CA03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5B32A-1E4F-4822-BBDA-7BF61316CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18075" windowHeight="12255" tabRatio="789" activeTab="3" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
+    <workbookView xWindow="8325" yWindow="1710" windowWidth="28800" windowHeight="11385" tabRatio="789" xr2:uid="{2F3B9A39-8D65-4A1A-9C7D-940892A06E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -906,9 +906,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>18 March</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 April	</t>
   </si>
   <si>
@@ -1754,6 +1751,9 @@
   </si>
   <si>
     <t>moto3</t>
+  </si>
+  <si>
+    <t>18 March ‡</t>
   </si>
 </sst>
 </file>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D757E5-4957-4002-A57B-DD3407E545FD}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2874,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2891,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2908,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2942,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2959,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -2976,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2993,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -3027,7 +3027,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -3044,7 +3044,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -3061,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3078,7 +3078,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -3095,7 +3095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -3112,7 +3112,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -3129,7 +3129,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -3165,10 +3165,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -3248,16 +3248,16 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>133</v>
@@ -3266,7 +3266,7 @@
         <v>137</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>133</v>
@@ -3302,7 +3302,7 @@
         <v>138</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>131</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>140</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>157</v>
@@ -3426,7 +3426,7 @@
         <v>129</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>128</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>138</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>134</v>
@@ -3544,7 +3544,7 @@
         <v>152</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>136</v>
@@ -3562,7 +3562,7 @@
         <v>129</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>129</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>145</v>
@@ -3603,7 +3603,7 @@
         <v>145</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>145</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>141</v>
@@ -3678,7 +3678,7 @@
         <v>136</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>138</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>68</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>160</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>164</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>152</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>138</v>
@@ -4024,10 +4024,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
@@ -4048,7 +4048,7 @@
         <v>138</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>142</v>
@@ -4069,7 +4069,7 @@
         <v>138</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>41</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>160</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>172</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>138</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>138</v>
@@ -4343,16 +4343,16 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>181</v>
@@ -4403,15 +4403,15 @@
         <v>150</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>105</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>150</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>154</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>143</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>138</v>
@@ -4679,7 +4679,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>148</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>138</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4901,10 +4901,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>43</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>148</v>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>59</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>138</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -5266,10 +5266,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5737,22 +5737,22 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7916,7 +7916,7 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8046,7 +8046,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8176,7 +8176,7 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8254,7 +8254,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8306,7 +8306,7 @@
         <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8332,7 +8332,7 @@
         <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
         <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8410,7 +8410,7 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8436,7 +8436,7 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8462,7 +8462,7 @@
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8514,7 +8514,7 @@
         <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8618,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
         <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8722,7 +8722,7 @@
         <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8774,7 +8774,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>94</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8826,7 +8826,7 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8878,7 +8878,7 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
         <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8945,7 +8945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487208C-5F51-44C5-8F84-3856B0C3FEB3}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -8956,10 +8956,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -9042,7 +9042,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>129</v>
@@ -9107,7 +9107,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>132</v>
@@ -9172,7 +9172,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
@@ -9237,7 +9237,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>140</v>
@@ -9302,7 +9302,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>138</v>
@@ -9367,7 +9367,7 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>156</v>
@@ -9432,7 +9432,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>142</v>
@@ -9493,7 +9493,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>141</v>
@@ -9558,7 +9558,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>138</v>
@@ -9621,7 +9621,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>68</v>
@@ -9686,7 +9686,7 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>143</v>
@@ -9751,7 +9751,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
@@ -9814,7 +9814,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9843,7 +9843,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>152</v>
@@ -9908,7 +9908,7 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>138</v>
@@ -9969,7 +9969,7 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>85</v>
@@ -10034,7 +10034,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>157</v>
@@ -10099,7 +10099,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>148</v>
@@ -10164,7 +10164,7 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>43</v>
@@ -10229,7 +10229,7 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>154</v>
@@ -10280,7 +10280,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>41</v>
@@ -10345,7 +10345,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>181</v>
@@ -10410,7 +10410,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10445,7 +10445,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>164</v>
@@ -10510,7 +10510,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -10539,7 +10539,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -10570,7 +10570,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -10601,7 +10601,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -10634,7 +10634,7 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -10663,7 +10663,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>174</v>
@@ -10728,7 +10728,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -10767,7 +10767,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>105</v>
@@ -10832,7 +10832,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -10861,7 +10861,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -10894,7 +10894,7 @@
         <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -10923,7 +10923,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -10950,7 +10950,7 @@
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -10974,12 +10974,12 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -11083,13 +11083,13 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
@@ -11149,7 +11149,7 @@
         <v>157</v>
       </c>
       <c r="X2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -11157,13 +11157,13 @@
         <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
         <v>141</v>
@@ -11223,7 +11223,7 @@
         <v>128</v>
       </c>
       <c r="X3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -11231,13 +11231,13 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -11270,7 +11270,7 @@
         <v>140</v>
       </c>
       <c r="O4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P4" t="s">
         <v>136</v>
@@ -11297,7 +11297,7 @@
         <v>138</v>
       </c>
       <c r="X4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -11305,10 +11305,10 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -11353,7 +11353,7 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S5" t="s">
         <v>138</v>
@@ -11365,13 +11365,13 @@
         <v>143</v>
       </c>
       <c r="V5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W5" t="s">
         <v>144</v>
       </c>
       <c r="X5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -11379,13 +11379,13 @@
         <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
         <v>145</v>
@@ -11400,7 +11400,7 @@
         <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
         <v>129</v>
@@ -11409,7 +11409,7 @@
         <v>143</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M6" t="s">
         <v>138</v>
@@ -11445,7 +11445,7 @@
         <v>138</v>
       </c>
       <c r="X6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -11453,10 +11453,10 @@
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -11519,7 +11519,7 @@
         <v>138</v>
       </c>
       <c r="X7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -11527,13 +11527,13 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -11593,7 +11593,7 @@
         <v>137</v>
       </c>
       <c r="X8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -11601,13 +11601,13 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
         <v>143</v>
@@ -11667,7 +11667,7 @@
         <v>143</v>
       </c>
       <c r="X9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -11675,13 +11675,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
         <v>142</v>
@@ -11720,7 +11720,7 @@
         <v>136</v>
       </c>
       <c r="Q10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R10" t="s">
         <v>150</v>
@@ -11741,7 +11741,7 @@
         <v>142</v>
       </c>
       <c r="X10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -11749,13 +11749,13 @@
         <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
         <v>181</v>
@@ -11803,7 +11803,7 @@
         <v>141</v>
       </c>
       <c r="T11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" t="s">
         <v>152</v>
@@ -11815,7 +11815,7 @@
         <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -11823,19 +11823,19 @@
         <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s">
         <v>138</v>
@@ -11859,7 +11859,7 @@
         <v>143</v>
       </c>
       <c r="N12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O12" t="s">
         <v>160</v>
@@ -11889,7 +11889,7 @@
         <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -11897,13 +11897,13 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
         <v>138</v>
@@ -11963,7 +11963,7 @@
         <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -11971,13 +11971,13 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
         <v>152</v>
@@ -12037,7 +12037,7 @@
         <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -12045,13 +12045,13 @@
         <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
         <v>157</v>
@@ -12111,7 +12111,7 @@
         <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -12119,13 +12119,13 @@
         <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
         <v>148</v>
@@ -12185,7 +12185,7 @@
         <v>68</v>
       </c>
       <c r="X16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -12193,13 +12193,13 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
         <v>138</v>
@@ -12259,7 +12259,7 @@
         <v>138</v>
       </c>
       <c r="X17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -12267,13 +12267,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
         <v>164</v>
@@ -12327,7 +12327,7 @@
         <v>154</v>
       </c>
       <c r="X18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -12335,13 +12335,13 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" t="s">
         <v>157</v>
@@ -12374,7 +12374,7 @@
         <v>140</v>
       </c>
       <c r="U19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V19" t="s">
         <v>138</v>
@@ -12383,7 +12383,7 @@
         <v>150</v>
       </c>
       <c r="X19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -12391,13 +12391,13 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -12448,7 +12448,7 @@
         <v>141</v>
       </c>
       <c r="X20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -12456,13 +12456,13 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
         <v>174</v>
@@ -12530,13 +12530,13 @@
         <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
         <v>186</v>
@@ -12575,7 +12575,7 @@
         <v>136</v>
       </c>
       <c r="Q22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X22" t="s">
         <v>157</v>
@@ -12586,13 +12586,13 @@
         <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q23" t="s">
         <v>164</v>
@@ -12621,13 +12621,13 @@
         <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
@@ -12656,13 +12656,13 @@
         <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
         <v>188</v>
@@ -12724,13 +12724,13 @@
         <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -12783,13 +12783,13 @@
         <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E27" t="s">
         <v>105</v>
@@ -12827,13 +12827,13 @@
         <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O28" t="s">
         <v>185</v>
@@ -12871,13 +12871,13 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E29" t="s">
         <v>187</v>
@@ -12945,13 +12945,13 @@
         <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
         <v>183</v>
@@ -13019,13 +13019,13 @@
         <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E31" t="s">
         <v>43</v>
@@ -13084,13 +13084,13 @@
         <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
         <v>185</v>
@@ -13158,13 +13158,13 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
         <v>105</v>
@@ -13181,13 +13181,13 @@
         <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S34" t="s">
         <v>148</v>
@@ -13210,13 +13210,13 @@
         <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I35" t="s">
         <v>183</v>
@@ -13272,13 +13272,13 @@
         <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H36" t="s">
         <v>183</v>
@@ -13316,13 +13316,13 @@
         <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R37" t="s">
         <v>190</v>
@@ -13348,16 +13348,16 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" t="s">
         <v>394</v>
-      </c>
-      <c r="B38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" t="s">
-        <v>395</v>
       </c>
       <c r="E38" t="s">
         <v>189</v>
@@ -13425,13 +13425,13 @@
         <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S39" t="s">
         <v>43</v>
@@ -13442,16 +13442,16 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s">
         <v>191</v>
@@ -13513,16 +13513,16 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41" t="s">
         <v>193</v>
@@ -13563,13 +13563,13 @@
         <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H42" t="s">
         <v>181</v>
@@ -13586,13 +13586,13 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W43" t="s">
         <v>181</v>
@@ -13603,16 +13603,16 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H44" t="s">
         <v>185</v>
@@ -13632,16 +13632,16 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U45" t="s">
         <v>174</v>
@@ -13652,16 +13652,16 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s">
         <v>186</v>
@@ -13672,16 +13672,16 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V47" t="s">
         <v>185</v>
@@ -13692,16 +13692,16 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N48" t="s">
         <v>138</v>
@@ -13718,16 +13718,16 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N49" t="s">
         <v>186</v>
@@ -13747,13 +13747,13 @@
         <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I50" t="s">
         <v>186</v>
@@ -13764,16 +13764,16 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" t="s">
         <v>402</v>
-      </c>
-      <c r="C51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51" t="s">
-        <v>403</v>
       </c>
       <c r="E51" t="s">
         <v>190</v>
@@ -13796,13 +13796,13 @@
         <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V52" t="s">
         <v>188</v>
@@ -13813,16 +13813,16 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I53" t="s">
         <v>189</v>
@@ -13833,13 +13833,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W54" t="s">
         <v>138</v>
@@ -13850,13 +13850,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P55" t="s">
         <v>136</v>
@@ -13915,111 +13915,111 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
         <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
-        <v>266</v>
-      </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3">
         <v>57</v>
       </c>
       <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" t="s">
         <v>267</v>
       </c>
-      <c r="G3" t="s">
-        <v>268</v>
-      </c>
       <c r="H3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5">
         <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14027,25 +14027,25 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E6">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14053,1299 +14053,1299 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7">
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E9">
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E10">
         <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E12">
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13">
         <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" t="s">
         <v>282</v>
       </c>
-      <c r="G13" t="s">
-        <v>283</v>
-      </c>
       <c r="H13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="F16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" t="s">
         <v>287</v>
       </c>
-      <c r="G16" t="s">
-        <v>288</v>
-      </c>
       <c r="H16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E17">
         <v>40</v>
       </c>
       <c r="F17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" t="s">
         <v>289</v>
       </c>
-      <c r="G17" t="s">
-        <v>290</v>
-      </c>
       <c r="H17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E18">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" t="s">
         <v>293</v>
       </c>
-      <c r="G19" t="s">
-        <v>294</v>
-      </c>
       <c r="H19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E20">
         <v>55</v>
       </c>
       <c r="F20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" t="s">
         <v>295</v>
       </c>
-      <c r="G20" t="s">
-        <v>296</v>
-      </c>
       <c r="H20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="G21" t="s">
-        <v>298</v>
-      </c>
       <c r="H21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E22">
         <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
         <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E23">
         <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E24">
         <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E25">
         <v>66</v>
       </c>
       <c r="F25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" t="s">
         <v>303</v>
       </c>
-      <c r="G25" t="s">
-        <v>304</v>
-      </c>
       <c r="H25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E27">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E28">
         <v>21</v>
       </c>
       <c r="F28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" t="s">
         <v>309</v>
       </c>
-      <c r="G28" t="s">
-        <v>310</v>
-      </c>
       <c r="H28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E29">
         <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E30">
         <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
         <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E31">
         <v>12</v>
       </c>
       <c r="F31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" t="s">
         <v>315</v>
       </c>
-      <c r="G31" t="s">
-        <v>316</v>
-      </c>
       <c r="H31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32">
         <v>77</v>
       </c>
       <c r="F32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" t="s">
         <v>318</v>
       </c>
-      <c r="G32" t="s">
-        <v>319</v>
-      </c>
       <c r="H32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" t="s">
         <v>320</v>
       </c>
-      <c r="G33" t="s">
-        <v>321</v>
-      </c>
       <c r="H33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E34">
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E35">
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E36">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E37">
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" t="s">
         <v>328</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>329</v>
       </c>
-      <c r="C38" t="s">
-        <v>330</v>
-      </c>
       <c r="D38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
         <v>328</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>329</v>
       </c>
-      <c r="C39" t="s">
-        <v>330</v>
-      </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
         <v>333</v>
       </c>
-      <c r="C40" t="s">
-        <v>334</v>
-      </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E40">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" t="s">
         <v>333</v>
       </c>
-      <c r="C41" t="s">
-        <v>334</v>
-      </c>
       <c r="D41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E41">
         <v>52</v>
       </c>
       <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
         <v>336</v>
       </c>
-      <c r="G41" t="s">
-        <v>337</v>
-      </c>
       <c r="H41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" t="s">
         <v>333</v>
       </c>
-      <c r="C42" t="s">
-        <v>334</v>
-      </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E42">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" t="s">
         <v>333</v>
       </c>
-      <c r="C43" t="s">
-        <v>334</v>
-      </c>
       <c r="D43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E43">
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
         <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
         <v>340</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>341</v>
       </c>
-      <c r="C44" t="s">
-        <v>342</v>
-      </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E44">
         <v>51</v>
       </c>
       <c r="F44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" t="s">
         <v>343</v>
       </c>
-      <c r="G44" t="s">
-        <v>344</v>
-      </c>
       <c r="H44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" t="s">
         <v>340</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>341</v>
       </c>
-      <c r="C45" t="s">
-        <v>342</v>
-      </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45">
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" t="s">
         <v>340</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>341</v>
       </c>
-      <c r="C46" t="s">
-        <v>342</v>
-      </c>
       <c r="D46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E46">
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
         <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" t="s">
         <v>340</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>341</v>
       </c>
-      <c r="C47" t="s">
-        <v>342</v>
-      </c>
       <c r="D47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E47">
         <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" t="s">
         <v>340</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>341</v>
       </c>
-      <c r="C48" t="s">
-        <v>342</v>
-      </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G48" t="s">
         <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" t="s">
         <v>348</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>349</v>
       </c>
-      <c r="C49" t="s">
-        <v>350</v>
-      </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E49">
         <v>64</v>
       </c>
       <c r="F49" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" t="s">
         <v>351</v>
       </c>
-      <c r="G49" t="s">
-        <v>352</v>
-      </c>
       <c r="H49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" t="s">
         <v>348</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>349</v>
       </c>
-      <c r="C50" t="s">
-        <v>350</v>
-      </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E50">
         <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s">
         <v>348</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>349</v>
       </c>
-      <c r="C51" t="s">
-        <v>350</v>
-      </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E51">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
       </c>
       <c r="H51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" t="s">
         <v>348</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>349</v>
       </c>
-      <c r="C52" t="s">
-        <v>350</v>
-      </c>
       <c r="D52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E52">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
         <v>148</v>
       </c>
       <c r="H52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" t="s">
         <v>348</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>349</v>
       </c>
-      <c r="C53" t="s">
-        <v>350</v>
-      </c>
       <c r="D53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E53">
         <v>87</v>
       </c>
       <c r="F53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="G53" t="s">
-        <v>356</v>
-      </c>
       <c r="H53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" t="s">
         <v>348</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>349</v>
       </c>
-      <c r="C54" t="s">
-        <v>350</v>
-      </c>
       <c r="D54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E54">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
         <v>349</v>
       </c>
-      <c r="C55" t="s">
-        <v>350</v>
-      </c>
       <c r="D55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E55">
         <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
         <v>141</v>
       </c>
       <c r="H55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" t="s">
         <v>360</v>
       </c>
-      <c r="B56" t="s">
-        <v>361</v>
-      </c>
       <c r="C56" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" t="s">
         <v>517</v>
-      </c>
-      <c r="D56" t="s">
-        <v>518</v>
       </c>
       <c r="E56">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G56" t="s">
         <v>141</v>
       </c>
       <c r="H56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -15372,10 +15372,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>128</v>
@@ -15520,10 +15520,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>141</v>
@@ -15585,10 +15585,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>140</v>
@@ -15621,7 +15621,7 @@
         <v>140</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>136</v>
@@ -15650,10 +15650,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>149</v>
@@ -15695,7 +15695,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>138</v>
@@ -15707,7 +15707,7 @@
         <v>143</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>144</v>
@@ -15715,10 +15715,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>145</v>
@@ -15733,7 +15733,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>129</v>
@@ -15742,7 +15742,7 @@
         <v>143</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>138</v>
@@ -15780,10 +15780,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>154</v>
@@ -15845,10 +15845,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>68</v>
@@ -15910,10 +15910,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>143</v>
@@ -15975,10 +15975,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>142</v>
@@ -16017,7 +16017,7 @@
         <v>136</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>150</v>
@@ -16040,10 +16040,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
@@ -16091,7 +16091,7 @@
         <v>141</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>152</v>
@@ -16105,16 +16105,16 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>138</v>
@@ -16138,7 +16138,7 @@
         <v>143</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>160</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>138</v>
@@ -16235,10 +16235,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>152</v>
@@ -16300,10 +16300,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>157</v>
@@ -16365,10 +16365,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>148</v>
@@ -16430,10 +16430,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>138</v>
@@ -16495,10 +16495,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>164</v>
@@ -16556,10 +16556,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -16598,7 +16598,7 @@
         <v>140</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>138</v>
@@ -16609,10 +16609,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>85</v>
@@ -16668,10 +16668,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>174</v>
@@ -16733,10 +16733,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>186</v>
@@ -16775,7 +16775,7 @@
         <v>136</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -16786,10 +16786,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -16825,10 +16825,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>59</v>
@@ -16864,10 +16864,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>188</v>
@@ -16925,10 +16925,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>41</v>
@@ -16980,10 +16980,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>105</v>
@@ -17025,10 +17025,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -17070,10 +17070,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>187</v>
@@ -17135,10 +17135,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>183</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>43</v>
@@ -17259,10 +17259,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>185</v>
@@ -17324,10 +17324,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -17355,10 +17355,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -17390,10 +17390,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -17447,10 +17447,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -17492,10 +17492,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -17531,10 +17531,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>189</v>
@@ -17596,10 +17596,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -17625,10 +17625,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>191</v>
@@ -17688,10 +17688,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>193</v>
@@ -17735,10 +17735,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -17766,10 +17766,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -17795,10 +17795,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -17830,10 +17830,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -17859,10 +17859,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -17888,10 +17888,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -17917,10 +17917,10 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -17950,10 +17950,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -17983,10 +17983,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -18012,10 +18012,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>190</v>
@@ -18047,10 +18047,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -18076,10 +18076,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -18105,10 +18105,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -18134,10 +18134,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -18163,7 +18163,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -18267,19 +18267,19 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>133</v>
@@ -18288,7 +18288,7 @@
         <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J2" t="s">
         <v>133</v>
@@ -18324,7 +18324,7 @@
         <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V2" t="s">
         <v>131</v>
@@ -18333,7 +18333,7 @@
         <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -18341,13 +18341,13 @@
         <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
@@ -18407,7 +18407,7 @@
         <v>142</v>
       </c>
       <c r="X3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -18415,13 +18415,13 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E4" t="s">
         <v>157</v>
@@ -18466,7 +18466,7 @@
         <v>129</v>
       </c>
       <c r="S4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T4" t="s">
         <v>128</v>
@@ -18481,7 +18481,7 @@
         <v>181</v>
       </c>
       <c r="X4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -18489,13 +18489,13 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
         <v>138</v>
@@ -18555,7 +18555,7 @@
         <v>141</v>
       </c>
       <c r="X5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -18563,13 +18563,13 @@
         <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
         <v>134</v>
@@ -18602,7 +18602,7 @@
         <v>152</v>
       </c>
       <c r="O6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P6" t="s">
         <v>136</v>
@@ -18620,7 +18620,7 @@
         <v>129</v>
       </c>
       <c r="U6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V6" t="s">
         <v>129</v>
@@ -18629,7 +18629,7 @@
         <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -18637,13 +18637,13 @@
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E7" t="s">
         <v>145</v>
@@ -18670,7 +18670,7 @@
         <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N7" t="s">
         <v>145</v>
@@ -18700,7 +18700,7 @@
         <v>138</v>
       </c>
       <c r="X7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -18708,13 +18708,13 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E8" t="s">
         <v>141</v>
@@ -18753,7 +18753,7 @@
         <v>136</v>
       </c>
       <c r="Q8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R8" t="s">
         <v>138</v>
@@ -18771,7 +18771,7 @@
         <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -18779,13 +18779,13 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -18845,7 +18845,7 @@
         <v>164</v>
       </c>
       <c r="X9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -18853,13 +18853,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E10" t="s">
         <v>160</v>
@@ -18919,7 +18919,7 @@
         <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -18927,13 +18927,13 @@
         <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E11" t="s">
         <v>164</v>
@@ -18993,7 +18993,7 @@
         <v>68</v>
       </c>
       <c r="X11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -19001,13 +19001,13 @@
         <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" t="s">
         <v>152</v>
@@ -19067,7 +19067,7 @@
         <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -19075,13 +19075,13 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E13" t="s">
         <v>138</v>
@@ -19141,7 +19141,7 @@
         <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -19149,13 +19149,13 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -19176,7 +19176,7 @@
         <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L14" t="s">
         <v>142</v>
@@ -19197,7 +19197,7 @@
         <v>138</v>
       </c>
       <c r="R14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S14" t="s">
         <v>41</v>
@@ -19212,7 +19212,7 @@
         <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -19220,13 +19220,13 @@
         <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E15" t="s">
         <v>160</v>
@@ -19286,7 +19286,7 @@
         <v>138</v>
       </c>
       <c r="X15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -19294,13 +19294,13 @@
         <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E16" t="s">
         <v>172</v>
@@ -19357,7 +19357,7 @@
         <v>143</v>
       </c>
       <c r="X16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -19365,13 +19365,13 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E17" t="s">
         <v>138</v>
@@ -19431,7 +19431,7 @@
         <v>138</v>
       </c>
       <c r="X17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -19439,13 +19439,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
         <v>138</v>
@@ -19502,7 +19502,7 @@
         <v>148</v>
       </c>
       <c r="X18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -19510,19 +19510,19 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G19" t="s">
         <v>181</v>
@@ -19573,10 +19573,10 @@
         <v>150</v>
       </c>
       <c r="W19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -19584,13 +19584,13 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E20" t="s">
         <v>105</v>
@@ -19650,7 +19650,7 @@
         <v>138</v>
       </c>
       <c r="X20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -19658,13 +19658,13 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E21" t="s">
         <v>150</v>
@@ -19729,13 +19729,13 @@
         <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E22" t="s">
         <v>154</v>
@@ -19800,13 +19800,13 @@
         <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E23" t="s">
         <v>143</v>
@@ -19866,7 +19866,7 @@
         <v>138</v>
       </c>
       <c r="X23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -19874,13 +19874,13 @@
         <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
         <v>138</v>
@@ -19892,7 +19892,7 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I24" t="s">
         <v>148</v>
@@ -19940,7 +19940,7 @@
         <v>138</v>
       </c>
       <c r="X24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -19948,13 +19948,13 @@
         <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W25" t="s">
         <v>128</v>
@@ -19968,13 +19968,13 @@
         <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C26" t="s">
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T26" t="s">
         <v>157</v>
@@ -19997,13 +19997,13 @@
         <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" t="s">
         <v>138</v>
@@ -20059,13 +20059,13 @@
         <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K28" t="s">
         <v>160</v>
@@ -20112,13 +20112,13 @@
         <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K29" t="s">
         <v>152</v>
@@ -20141,13 +20141,13 @@
         <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E30" t="s">
         <v>43</v>
@@ -20215,13 +20215,13 @@
         <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E31" t="s">
         <v>148</v>
@@ -20253,13 +20253,13 @@
         <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V32" t="s">
         <v>41</v>
@@ -20273,13 +20273,13 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -20347,13 +20347,13 @@
         <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" t="s">
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E34" t="s">
         <v>138</v>
@@ -20388,13 +20388,13 @@
         <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S35" t="s">
         <v>68</v>
@@ -20405,16 +20405,16 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J36" t="s">
         <v>152</v>
@@ -20428,13 +20428,13 @@
         <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J37" t="s">
         <v>138</v>
@@ -20448,13 +20448,13 @@
         <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L38" t="s">
         <v>189</v>
@@ -20498,16 +20498,16 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H39" t="s">
         <v>164</v>
@@ -20527,16 +20527,16 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q40" t="s">
         <v>148</v>
@@ -20553,13 +20553,13 @@
         <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S41" t="s">
         <v>105</v>
@@ -20573,16 +20573,16 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H42" t="s">
         <v>138</v>
@@ -20599,16 +20599,16 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q43" t="s">
         <v>181</v>
@@ -20619,16 +20619,16 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C44" t="s">
         <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M44" t="s">
         <v>181</v>
@@ -20639,16 +20639,16 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T45" t="s">
         <v>185</v>
@@ -20659,16 +20659,16 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T46" t="s">
         <v>186</v>
@@ -20682,13 +20682,13 @@
         <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N47" t="s">
         <v>186</v>
@@ -20699,16 +20699,16 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L48" t="s">
         <v>190</v>
@@ -20722,13 +20722,13 @@
         <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C49" t="s">
         <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O49" t="s">
         <v>191</v>
@@ -20739,13 +20739,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W50" t="s">
         <v>138</v>
@@ -20756,13 +20756,13 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" t="s">
         <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P51" t="s">
         <v>136</v>
@@ -20773,13 +20773,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P52" t="s">
         <v>136</v>
@@ -20838,1437 +20838,1437 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
         <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5">
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" t="s">
         <v>410</v>
       </c>
-      <c r="G5" t="s">
-        <v>411</v>
-      </c>
       <c r="H5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E6">
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
         <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7">
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8">
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E9">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E10">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E11">
         <v>32</v>
       </c>
       <c r="F11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" t="s">
         <v>416</v>
       </c>
-      <c r="G11" t="s">
-        <v>417</v>
-      </c>
       <c r="H11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E12">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G12" t="s">
         <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14">
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15">
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G15" t="s">
         <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E16">
         <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E18">
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" t="s">
         <v>427</v>
       </c>
-      <c r="G19" t="s">
-        <v>428</v>
-      </c>
       <c r="H19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G20" t="s">
         <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E21">
         <v>71</v>
       </c>
       <c r="F21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G21" t="s">
         <v>430</v>
       </c>
-      <c r="G21" t="s">
-        <v>431</v>
-      </c>
       <c r="H21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E22">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E23">
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E24">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E25">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E26">
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" t="s">
         <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E27">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E28">
         <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" t="s">
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E29">
         <v>25</v>
       </c>
       <c r="F29" t="s">
+        <v>441</v>
+      </c>
+      <c r="G29" t="s">
         <v>442</v>
       </c>
-      <c r="G29" t="s">
-        <v>443</v>
-      </c>
       <c r="H29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
+        <v>444</v>
+      </c>
+      <c r="G30" t="s">
         <v>445</v>
       </c>
-      <c r="G30" t="s">
-        <v>446</v>
-      </c>
       <c r="H30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E31">
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E33">
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E34">
         <v>81</v>
       </c>
       <c r="F34" t="s">
+        <v>450</v>
+      </c>
+      <c r="G34" t="s">
         <v>451</v>
       </c>
-      <c r="G34" t="s">
-        <v>452</v>
-      </c>
       <c r="H34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E35">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G35" t="s">
         <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E36">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G36" t="s">
         <v>152</v>
       </c>
       <c r="H36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E37">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G37" t="s">
         <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E38">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G38" t="s">
         <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39">
         <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G39" t="s">
         <v>154</v>
       </c>
       <c r="H39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E40">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G40" t="s">
         <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E41">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E42">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
       <c r="F43" t="s">
+        <v>466</v>
+      </c>
+      <c r="G43" t="s">
         <v>467</v>
       </c>
-      <c r="G43" t="s">
-        <v>468</v>
-      </c>
       <c r="H43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E44">
         <v>77</v>
       </c>
       <c r="F44" t="s">
+        <v>468</v>
+      </c>
+      <c r="G44" t="s">
         <v>469</v>
       </c>
-      <c r="G44" t="s">
-        <v>470</v>
-      </c>
       <c r="H44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B45" t="s">
         <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45">
         <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G45" t="s">
         <v>143</v>
       </c>
       <c r="H45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E46">
         <v>40</v>
       </c>
       <c r="F46" t="s">
+        <v>470</v>
+      </c>
+      <c r="G46" t="s">
         <v>471</v>
       </c>
-      <c r="G46" t="s">
-        <v>472</v>
-      </c>
       <c r="H46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
         <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E47">
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
         <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
         <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E48">
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
         <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B49" t="s">
         <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E49">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s">
         <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E50">
         <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E51">
         <v>8</v>
       </c>
       <c r="F51" t="s">
+        <v>476</v>
+      </c>
+      <c r="G51" t="s">
         <v>477</v>
       </c>
-      <c r="G51" t="s">
-        <v>478</v>
-      </c>
       <c r="H51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E52">
         <v>31</v>
       </c>
       <c r="F52" t="s">
+        <v>478</v>
+      </c>
+      <c r="G52" t="s">
         <v>479</v>
       </c>
-      <c r="G52" t="s">
-        <v>480</v>
-      </c>
       <c r="H52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s">
         <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E54">
         <v>9</v>
       </c>
       <c r="F54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" t="s">
         <v>482</v>
       </c>
-      <c r="G54" t="s">
-        <v>483</v>
-      </c>
       <c r="H54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E55">
         <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
       </c>
       <c r="H55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" t="s">
         <v>486</v>
       </c>
-      <c r="B56" t="s">
-        <v>487</v>
-      </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G56" t="s">
         <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
